--- a/dixon_coles_model_predictions/_predictions.xlsx
+++ b/dixon_coles_model_predictions/_predictions.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4870" uniqueCount="750">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4885" uniqueCount="750">
   <si>
     <t>League</t>
   </si>
@@ -2666,11 +2666,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AD969"/>
+  <dimension ref="A1:AD972"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A950" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D970" sqref="D970"/>
+      <selection pane="bottomLeft" activeCell="B973" sqref="B973"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -91823,6 +91823,282 @@
         <v>95.65</v>
       </c>
     </row>
+    <row r="970" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A970" t="s">
+        <v>704</v>
+      </c>
+      <c r="B970" t="s">
+        <v>712</v>
+      </c>
+      <c r="C970" t="s">
+        <v>733</v>
+      </c>
+      <c r="D970">
+        <v>4.5199999999999996</v>
+      </c>
+      <c r="E970">
+        <v>10.67</v>
+      </c>
+      <c r="F970" s="5">
+        <v>83.63</v>
+      </c>
+      <c r="G970" t="s">
+        <v>172</v>
+      </c>
+      <c r="H970">
+        <v>15.19</v>
+      </c>
+      <c r="I970" s="5">
+        <v>88.149999999999991</v>
+      </c>
+      <c r="J970" s="5">
+        <v>94.3</v>
+      </c>
+      <c r="K970" s="5">
+        <v>93.67</v>
+      </c>
+      <c r="L970" s="5">
+        <v>81.680000000000007</v>
+      </c>
+      <c r="M970">
+        <v>33.9</v>
+      </c>
+      <c r="N970">
+        <v>52.84</v>
+      </c>
+      <c r="O970">
+        <v>58.33</v>
+      </c>
+      <c r="P970">
+        <v>4.58</v>
+      </c>
+      <c r="Q970">
+        <v>15.56</v>
+      </c>
+      <c r="R970">
+        <v>74.78</v>
+      </c>
+      <c r="S970" t="s">
+        <v>65</v>
+      </c>
+      <c r="T970">
+        <v>20.14</v>
+      </c>
+      <c r="U970">
+        <v>79.36</v>
+      </c>
+      <c r="V970" s="5">
+        <v>90.34</v>
+      </c>
+      <c r="W970" s="5">
+        <v>84.86</v>
+      </c>
+      <c r="X970">
+        <v>35.24</v>
+      </c>
+      <c r="Y970">
+        <v>59.09</v>
+      </c>
+      <c r="Z970" s="5">
+        <v>96.11</v>
+      </c>
+      <c r="AA970">
+        <v>22.89</v>
+      </c>
+      <c r="AB970" s="5">
+        <v>86.33</v>
+      </c>
+      <c r="AC970" s="5">
+        <v>92.42</v>
+      </c>
+      <c r="AD970">
+        <v>30.13</v>
+      </c>
+    </row>
+    <row r="971" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A971" t="s">
+        <v>597</v>
+      </c>
+      <c r="B971" t="s">
+        <v>467</v>
+      </c>
+      <c r="C971" t="s">
+        <v>470</v>
+      </c>
+      <c r="D971">
+        <v>46.85</v>
+      </c>
+      <c r="E971">
+        <v>18.829999999999998</v>
+      </c>
+      <c r="F971">
+        <v>34.32</v>
+      </c>
+      <c r="G971" t="s">
+        <v>38</v>
+      </c>
+      <c r="H971">
+        <v>65.680000000000007</v>
+      </c>
+      <c r="I971" s="5">
+        <v>81.17</v>
+      </c>
+      <c r="J971">
+        <v>53.15</v>
+      </c>
+      <c r="K971">
+        <v>59.96</v>
+      </c>
+      <c r="L971">
+        <v>38.119999999999997</v>
+      </c>
+      <c r="M971" s="5">
+        <v>81.64</v>
+      </c>
+      <c r="N971" s="5">
+        <v>92.59</v>
+      </c>
+      <c r="O971">
+        <v>39.369999999999997</v>
+      </c>
+      <c r="P971">
+        <v>34.65</v>
+      </c>
+      <c r="Q971">
+        <v>32.74</v>
+      </c>
+      <c r="R971">
+        <v>32.54</v>
+      </c>
+      <c r="S971" t="s">
+        <v>33</v>
+      </c>
+      <c r="T971">
+        <v>67.39</v>
+      </c>
+      <c r="U971">
+        <v>67.19</v>
+      </c>
+      <c r="V971">
+        <v>65.28</v>
+      </c>
+      <c r="W971">
+        <v>73.55</v>
+      </c>
+      <c r="X971">
+        <v>72.89</v>
+      </c>
+      <c r="Y971">
+        <v>70.84</v>
+      </c>
+      <c r="Z971">
+        <v>62.55</v>
+      </c>
+      <c r="AA971">
+        <v>34.909999999999997</v>
+      </c>
+      <c r="AB971">
+        <v>25.77</v>
+      </c>
+      <c r="AC971" s="5">
+        <v>87.24</v>
+      </c>
+      <c r="AD971" s="5">
+        <v>92.29</v>
+      </c>
+    </row>
+    <row r="972" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A972" t="s">
+        <v>694</v>
+      </c>
+      <c r="B972" t="s">
+        <v>145</v>
+      </c>
+      <c r="C972" t="s">
+        <v>154</v>
+      </c>
+      <c r="D972">
+        <v>33.200000000000003</v>
+      </c>
+      <c r="E972">
+        <v>28</v>
+      </c>
+      <c r="F972">
+        <v>38.79</v>
+      </c>
+      <c r="G972" t="s">
+        <v>42</v>
+      </c>
+      <c r="H972">
+        <v>61.2</v>
+      </c>
+      <c r="I972">
+        <v>71.990000000000009</v>
+      </c>
+      <c r="J972">
+        <v>66.789999999999992</v>
+      </c>
+      <c r="K972">
+        <v>79.63</v>
+      </c>
+      <c r="L972">
+        <v>54.71</v>
+      </c>
+      <c r="M972">
+        <v>67.62</v>
+      </c>
+      <c r="N972" s="5">
+        <v>83.65</v>
+      </c>
+      <c r="O972">
+        <v>59.53</v>
+      </c>
+      <c r="P972">
+        <v>26.21</v>
+      </c>
+      <c r="Q972">
+        <v>34.9</v>
+      </c>
+      <c r="R972">
+        <v>38.67</v>
+      </c>
+      <c r="S972" t="s">
+        <v>33</v>
+      </c>
+      <c r="T972">
+        <v>61.11</v>
+      </c>
+      <c r="U972">
+        <v>64.88</v>
+      </c>
+      <c r="V972">
+        <v>73.569999999999993</v>
+      </c>
+      <c r="W972">
+        <v>77.64</v>
+      </c>
+      <c r="X972">
+        <v>58.11</v>
+      </c>
+      <c r="Y972">
+        <v>74.66</v>
+      </c>
+      <c r="Z972">
+        <v>77.63</v>
+      </c>
+      <c r="AA972">
+        <v>39.869999999999997</v>
+      </c>
+      <c r="AB972">
+        <v>44.13</v>
+      </c>
+      <c r="AC972" s="5">
+        <v>84</v>
+      </c>
+      <c r="AD972" s="5">
+        <v>80.94</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
